--- a/AOS Create New User/Default.xlsx
+++ b/AOS Create New User/Default.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>usmandemo7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>New Users</t>
   </si>
   <si>
-    <t>usmandemo8</t>
+    <t>otusers11</t>
   </si>
   <si>
-    <t>usmandemo6</t>
+    <t>otusers2</t>
   </si>
 </sst>
 </file>
@@ -500,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -514,22 +511,17 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/AOS Create New User/Default.xlsx
+++ b/AOS Create New User/Default.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>landbank1</t>
+  </si>
   <si>
     <t>New Users</t>
-  </si>
-  <si>
-    <t>otusers11</t>
-  </si>
-  <si>
-    <t>otusers2</t>
   </si>
 </sst>
 </file>
@@ -497,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -511,17 +508,12 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
